--- a/biology/Médecine/Forrest_Bird/Forrest_Bird.xlsx
+++ b/biology/Médecine/Forrest_Bird/Forrest_Bird.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forrest Morton Bird, né le 2 juin 1921 à Stoughton au Massachusetts et mort le 2 août 2015 à Sagle en Idaho[1], est un aviateur, médecin et physiologiste américain. Il est l'inventeur des respirateurs artificiels modernes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forrest Morton Bird, né le 2 juin 1921 à Stoughton au Massachusetts et mort le 2 août 2015 à Sagle en Idaho, est un aviateur, médecin et physiologiste américain. Il est l'inventeur des respirateurs artificiels modernes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un pionnier de l'aviation, il devient pilote pendant la Seconde Guerre mondiale.
 Il a l'occasion d'utiliser un Junkers Ju 88 équipé d'un système d'oxygène pour le pilote.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Revue Oxygène, no 75 - Karl Leroux
 </t>
